--- a/Datos/Database by set/Set with text box/Xlsx sets/Miscellaneous Book Promos (PBOOK).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Miscellaneous Book Promos (PBOOK).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,49 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jace Beleren</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{1}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Jace</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>+2: Each player draws a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>−1: Target player draws a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>−10: Target player mills twenty cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
+          <t>('Jace Beleren', ['{1}{U}{U}', 'Legendary Planeswalker — Jace', '+2: Each player draws a card.', '−1: Target player draws a card.', '−10: Target player mills twenty cards.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
